--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H2">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I2">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J2">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N2">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O2">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P2">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q2">
-        <v>24.72116854096867</v>
+        <v>85.85558644463423</v>
       </c>
       <c r="R2">
-        <v>222.490516868718</v>
+        <v>772.7002780017081</v>
       </c>
       <c r="S2">
-        <v>0.03243472771399765</v>
+        <v>0.3250888711252307</v>
       </c>
       <c r="T2">
-        <v>0.03243472771399764</v>
+        <v>0.3250888711252307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H3">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I3">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J3">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O3">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P3">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q3">
-        <v>1.804485793025222</v>
+        <v>4.869732411801444</v>
       </c>
       <c r="R3">
-        <v>16.240372137227</v>
+        <v>43.827591706213</v>
       </c>
       <c r="S3">
-        <v>0.002367525841812689</v>
+        <v>0.01843905420709427</v>
       </c>
       <c r="T3">
-        <v>0.002367525841812688</v>
+        <v>0.01843905420709427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H4">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I4">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J4">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N4">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O4">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P4">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q4">
-        <v>0.7145255353327779</v>
+        <v>0.6422993482484444</v>
       </c>
       <c r="R4">
-        <v>6.430729817995001</v>
+        <v>5.780694134236</v>
       </c>
       <c r="S4">
-        <v>0.0009374735318360866</v>
+        <v>0.002432041742341485</v>
       </c>
       <c r="T4">
-        <v>0.0009374735318360864</v>
+        <v>0.002432041742341485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H5">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I5">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J5">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N5">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O5">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P5">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q5">
-        <v>18.530879067323</v>
+        <v>5.302499303868666</v>
       </c>
       <c r="R5">
-        <v>166.777911605907</v>
+        <v>47.72249373481799</v>
       </c>
       <c r="S5">
-        <v>0.02431292905323516</v>
+        <v>0.02007770937478371</v>
       </c>
       <c r="T5">
-        <v>0.02431292905323515</v>
+        <v>0.02007770937478371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H6">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I6">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J6">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N6">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O6">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P6">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q6">
-        <v>0.2380257493988889</v>
+        <v>0.9101889050667777</v>
       </c>
       <c r="R6">
-        <v>2.14223174459</v>
+        <v>8.191700145600999</v>
       </c>
       <c r="S6">
-        <v>0.0003122951230189174</v>
+        <v>0.003446395230783041</v>
       </c>
       <c r="T6">
-        <v>0.0003122951230189173</v>
+        <v>0.003446395230783041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H7">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I7">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J7">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N7">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O7">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P7">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q7">
-        <v>1.297472239181222</v>
+        <v>1.981885083851555</v>
       </c>
       <c r="R7">
-        <v>11.677250152631</v>
+        <v>17.836965754664</v>
       </c>
       <c r="S7">
-        <v>0.001702312684959543</v>
+        <v>0.007504331532633795</v>
       </c>
       <c r="T7">
-        <v>0.001702312684959543</v>
+        <v>0.007504331532633795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N8">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O8">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P8">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q8">
-        <v>66.50370147043468</v>
+        <v>85.58423065047646</v>
       </c>
       <c r="R8">
-        <v>598.5333132339121</v>
+        <v>770.2580758542881</v>
       </c>
       <c r="S8">
-        <v>0.0872543482559022</v>
+        <v>0.3240613928626143</v>
       </c>
       <c r="T8">
-        <v>0.08725434825590216</v>
+        <v>0.3240613928626143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O9">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P9">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q9">
         <v>4.854341099940889</v>
@@ -1013,10 +1013,10 @@
         <v>43.689069899468</v>
       </c>
       <c r="S9">
-        <v>0.006369004424144473</v>
+        <v>0.01838077559757</v>
       </c>
       <c r="T9">
-        <v>0.006369004424144471</v>
+        <v>0.01838077559757</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N10">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O10">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P10">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q10">
-        <v>1.922182311731111</v>
+        <v>0.6402692922328889</v>
       </c>
       <c r="R10">
-        <v>17.29964080558</v>
+        <v>5.762423630096</v>
       </c>
       <c r="S10">
-        <v>0.002521946314727816</v>
+        <v>0.002424355013431381</v>
       </c>
       <c r="T10">
-        <v>0.002521946314727815</v>
+        <v>0.002424355013431381</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N11">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O11">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P11">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q11">
-        <v>49.85088174273199</v>
+        <v>5.285740185805333</v>
       </c>
       <c r="R11">
-        <v>448.657935684588</v>
+        <v>47.571661672248</v>
       </c>
       <c r="S11">
-        <v>0.06540547518814224</v>
+        <v>0.02001425161975718</v>
       </c>
       <c r="T11">
-        <v>0.06540547518814223</v>
+        <v>0.02001425161975718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N12">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O12">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P12">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q12">
-        <v>0.6403254503955556</v>
+        <v>0.9073121553595556</v>
       </c>
       <c r="R12">
-        <v>5.76292905356</v>
+        <v>8.165809398236</v>
       </c>
       <c r="S12">
-        <v>0.0008401213558131</v>
+        <v>0.003435502528822013</v>
       </c>
       <c r="T12">
-        <v>0.0008401213558130997</v>
+        <v>0.003435502528822013</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N13">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O13">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P13">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q13">
-        <v>3.490397564244889</v>
+        <v>1.975621123367111</v>
       </c>
       <c r="R13">
-        <v>31.413578078204</v>
+        <v>17.780590110304</v>
       </c>
       <c r="S13">
-        <v>0.004579479906957812</v>
+        <v>0.007480613287531896</v>
       </c>
       <c r="T13">
-        <v>0.00457947990695781</v>
+        <v>0.007480613287531896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H14">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N14">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O14">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P14">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q14">
-        <v>307.0715421091234</v>
+        <v>56.30083941563023</v>
       </c>
       <c r="R14">
-        <v>2763.64387898211</v>
+        <v>506.7075547406721</v>
       </c>
       <c r="S14">
-        <v>0.4028847520100487</v>
+        <v>0.213180959876537</v>
       </c>
       <c r="T14">
-        <v>0.4028847520100485</v>
+        <v>0.213180959876537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H15">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O15">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P15">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q15">
-        <v>22.41424123054611</v>
+        <v>3.193385938732445</v>
       </c>
       <c r="R15">
-        <v>201.728171074915</v>
+        <v>28.74047344859201</v>
       </c>
       <c r="S15">
-        <v>0.02940798732971772</v>
+        <v>0.01209163285558801</v>
       </c>
       <c r="T15">
-        <v>0.02940798732971771</v>
+        <v>0.01209163285558801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H16">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N16">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O16">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P16">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q16">
-        <v>8.87540803936389</v>
+        <v>0.4211955675804445</v>
       </c>
       <c r="R16">
-        <v>79.878672354275</v>
+        <v>3.790760108224</v>
       </c>
       <c r="S16">
-        <v>0.01164473445623431</v>
+        <v>0.001594840793219403</v>
       </c>
       <c r="T16">
-        <v>0.01164473445623431</v>
+        <v>0.001594840793219403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H17">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N17">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O17">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P17">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q17">
-        <v>230.179475634835</v>
+        <v>3.477178063434667</v>
       </c>
       <c r="R17">
-        <v>2071.615280713515</v>
+        <v>31.294602570912</v>
       </c>
       <c r="S17">
-        <v>0.3020006358192197</v>
+        <v>0.01316620080479386</v>
       </c>
       <c r="T17">
-        <v>0.3020006358192195</v>
+        <v>0.01316620080479386</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H18">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N18">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O18">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P18">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q18">
-        <v>2.956613228394445</v>
+        <v>0.5968673851537778</v>
       </c>
       <c r="R18">
-        <v>26.60951905555</v>
+        <v>5.371806466384</v>
       </c>
       <c r="S18">
-        <v>0.003879142883543471</v>
+        <v>0.002260015364011722</v>
       </c>
       <c r="T18">
-        <v>0.00387914288354347</v>
+        <v>0.002260015364011722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H19">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N19">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O19">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P19">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q19">
-        <v>16.11642267916611</v>
+        <v>1.299645118819556</v>
       </c>
       <c r="R19">
-        <v>145.047804112495</v>
+        <v>11.696806069376</v>
       </c>
       <c r="S19">
-        <v>0.0211451081066885</v>
+        <v>0.00492105618325633</v>
       </c>
       <c r="T19">
-        <v>0.02114510810668849</v>
+        <v>0.004921056183256329</v>
       </c>
     </row>
   </sheetData>
